--- a/Макеты/ВА_ИмпортExcel+Меркурий.xlsx
+++ b/Макеты/ВА_ИмпортExcel+Меркурий.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711E30DD-1E45-4E57-B21A-B07B60CC94D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F307FDC-1A25-475C-AC5C-5654CD09AA86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="2Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
 </workbook>
@@ -272,12 +273,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -285,6 +280,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,7 +676,7 @@
   </sheetPr>
   <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -704,50 +705,50 @@
       <c r="N2"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1535,4 +1536,18 @@
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2224FAF8-ABE5-4A2C-82C2-CD9ECE2F00F8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>